--- a/data/price/BTC.xlsx
+++ b/data/price/BTC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morten/data_science/Text_Analytics/Exam/price/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morten/data_science/Text_Analytics/TA_Exam/data/price/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F46C974-DC43-FE43-B5F2-3DBABD681940}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D69F49-130C-524D-892D-305BB25F444B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23660" windowHeight="15240" xr2:uid="{6E36F134-F924-44A8-91FE-95375088241E}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Upper bound</t>
-  </si>
-  <si>
     <t>Lower Bound</t>
   </si>
   <si>
@@ -2616,6 +2613,9 @@
   </si>
   <si>
     <t>31-12-16</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
   </si>
 </sst>
 </file>
@@ -2693,7 +2693,7 @@
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{AA474F60-E4DB-4BFD-98C7-77186189EB6B}" uniqueName="2" name="High" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{5872403C-D45C-4FB5-A1A5-B78733C1580D}" uniqueName="3" name="Low" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{DE616E3A-1EB0-49C2-9878-C6890DD41792}" uniqueName="4" name="Upper bound" queryTableFieldId="4"/>
+    <tableColumn id="4" xr3:uid="{DE616E3A-1EB0-49C2-9878-C6890DD41792}" uniqueName="4" name="Upper Bound" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{CA0D1290-346B-47CB-ACE8-7FD231B404FE}" uniqueName="5" name="Lower Bound" queryTableFieldId="5"/>
     <tableColumn id="10" xr3:uid="{1D4B440C-EDE9-6349-AAA1-3B70DAFF787C}" uniqueName="10" name="Date" queryTableFieldId="10"/>
   </tableColumns>
@@ -3001,7 +3001,7 @@
   <dimension ref="A1:E857"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3018,10 +3018,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>4282.3051754999997</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3058,7 +3058,7 @@
         <v>4197.1124264999999</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3075,7 +3075,7 @@
         <v>4113.58483875</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3092,7 +3092,7 @@
         <v>4040.4675292500006</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3109,7 +3109,7 @@
         <v>4010.02514625</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3126,7 +3126,7 @@
         <v>3918.4801027500002</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3143,7 +3143,7 @@
         <v>3872.1075442500005</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3160,7 +3160,7 @@
         <v>3913.8149414999998</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3177,7 +3177,7 @@
         <v>3894.33764625</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3194,7 +3194,7 @@
         <v>3828.1351319999999</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3211,7 +3211,7 @@
         <v>3773.7674557499995</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3228,7 +3228,7 @@
         <v>4043.2349850000001</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3245,7 +3245,7 @@
         <v>4028.4825442500005</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3262,7 +3262,7 @@
         <v>3949.2974850000001</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3279,7 +3279,7 @@
         <v>3924.5775149999999</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3296,7 +3296,7 @@
         <v>3955.83764625</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3313,7 +3313,7 @@
         <v>3909.1351319999999</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3330,7 +3330,7 @@
         <v>3924.7426754999997</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3347,7 +3347,7 @@
         <v>3893.1075442500005</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3364,7 +3364,7 @@
         <v>3771.8701169999999</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3381,7 +3381,7 @@
         <v>3726.9825442500005</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3398,7 +3398,7 @@
         <v>3773.40014625</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3415,7 +3415,7 @@
         <v>3792.1424557499995</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3432,7 +3432,7 @@
         <v>3695.7150877500003</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3449,7 +3449,7 @@
         <v>3740.7374264999999</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
         <v>3883.9573972499998</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3483,7 +3483,7 @@
         <v>3869.3474122499997</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3500,7 +3500,7 @@
         <v>3855.9224850000001</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3517,7 +3517,7 @@
         <v>3783.20983875</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3534,7 +3534,7 @@
         <v>3703.5</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3551,7 +3551,7 @@
         <v>3673.2073972499998</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3568,7 +3568,7 @@
         <v>3599.8275149999999</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3585,7 +3585,7 @@
         <v>3623.6923830000001</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3602,7 +3602,7 @@
         <v>3110.77514625</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3619,7 +3619,7 @@
         <v>3074.0925292500006</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -3636,7 +3636,7 @@
         <v>3061.6499632499999</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3653,7 +3653,7 @@
         <v>3050.1525877499998</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3670,7 +3670,7 @@
         <v>3023.4149782499999</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
         <v>3011.01745575</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -3704,7 +3704,7 @@
         <v>2949.5925292500001</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -3721,7 +3721,7 @@
         <v>2926.8900149999999</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3738,7 +3738,7 @@
         <v>2915.7599490000002</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3755,7 +3755,7 @@
         <v>2977.7625735000001</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3772,7 +3772,7 @@
         <v>2986.8524782499999</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
         <v>2988</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -3806,7 +3806,7 @@
         <v>2965.1475217500001</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>2996.6174925</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3840,7 +3840,7 @@
         <v>2979.3524782499999</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3857,7 +3857,7 @@
         <v>2973.23254425</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3874,7 +3874,7 @@
         <v>2978.2274782499999</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3891,7 +3891,7 @@
         <v>2943.7349850000001</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3908,7 +3908,7 @@
         <v>2907.1274414999998</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -3925,7 +3925,7 @@
         <v>2868.7725217500001</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3942,7 +3942,7 @@
         <v>2889.79504425</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3959,7 +3959,7 @@
         <v>2870.4224850000001</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3976,7 +3976,7 @@
         <v>2887.0874632499999</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3993,7 +3993,7 @@
         <v>2923.3650509999998</v>
       </c>
       <c r="E58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -4010,7 +4010,7 @@
         <v>2895.4949340000003</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -4027,7 +4027,7 @@
         <v>2853.7349850000001</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -4044,7 +4044,7 @@
         <v>2889.8999632499999</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -4061,7 +4061,7 @@
         <v>2879.5424197500001</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -4078,7 +4078,7 @@
         <v>2790.3674925</v>
       </c>
       <c r="E63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>2778.8549197500001</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -4112,7 +4112,7 @@
         <v>2841.0300292500001</v>
       </c>
       <c r="E65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -4129,7 +4129,7 @@
         <v>2843.0549925</v>
       </c>
       <c r="E66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -4146,7 +4146,7 @@
         <v>2867.0024414999998</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -4163,7 +4163,7 @@
         <v>2848.5</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -4180,7 +4180,7 @@
         <v>2774.6475217500001</v>
       </c>
       <c r="E69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -4197,7 +4197,7 @@
         <v>2843.9249264999999</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -4214,7 +4214,7 @@
         <v>2828.6475217500001</v>
       </c>
       <c r="E71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -4231,7 +4231,7 @@
         <v>2816.5349122500002</v>
       </c>
       <c r="E72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -4248,7 +4248,7 @@
         <v>2961.3599850000001</v>
       </c>
       <c r="E73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -4265,7 +4265,7 @@
         <v>2938.2449340000003</v>
       </c>
       <c r="E74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -4282,7 +4282,7 @@
         <v>2925.2100217500001</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4299,7 +4299,7 @@
         <v>2924.1824340000003</v>
       </c>
       <c r="E76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -4316,7 +4316,7 @@
         <v>2911.8900149999999</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4333,7 +4333,7 @@
         <v>2746.0649414999998</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -4350,7 +4350,7 @@
         <v>2706.1349490000002</v>
       </c>
       <c r="E79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>2694.0300292500001</v>
       </c>
       <c r="E80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4384,7 +4384,7 @@
         <v>2681.9624632499999</v>
       </c>
       <c r="E81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -4401,7 +4401,7 @@
         <v>2675.5424197500001</v>
       </c>
       <c r="E82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -4418,7 +4418,7 @@
         <v>2692.5075075</v>
       </c>
       <c r="E83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4435,7 +4435,7 @@
         <v>2680.6649782499999</v>
       </c>
       <c r="E84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4452,7 +4452,7 @@
         <v>2706.1349490000002</v>
       </c>
       <c r="E85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4469,7 +4469,7 @@
         <v>2708.5949707499999</v>
       </c>
       <c r="E86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4486,7 +4486,7 @@
         <v>2712.0825802499999</v>
       </c>
       <c r="E87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4503,7 +4503,7 @@
         <v>2522.4900509999998</v>
       </c>
       <c r="E88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4520,7 +4520,7 @@
         <v>2526.8250735000001</v>
       </c>
       <c r="E89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4537,7 +4537,7 @@
         <v>2521.6799925</v>
       </c>
       <c r="E90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4554,7 +4554,7 @@
         <v>2561.7524414999998</v>
       </c>
       <c r="E91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4571,7 +4571,7 @@
         <v>2571.9074707499999</v>
       </c>
       <c r="E92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4588,7 +4588,7 @@
         <v>2568.3149414999998</v>
       </c>
       <c r="E93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4605,7 +4605,7 @@
         <v>2580.9074707499999</v>
       </c>
       <c r="E94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4622,7 +4622,7 @@
         <v>2549.2199707499999</v>
       </c>
       <c r="E95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4639,7 +4639,7 @@
         <v>2567.1225585000002</v>
       </c>
       <c r="E96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4656,7 +4656,7 @@
         <v>2546.95495575</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4673,7 +4673,7 @@
         <v>2526.89245575</v>
       </c>
       <c r="E98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4690,7 +4690,7 @@
         <v>2551.92004425</v>
       </c>
       <c r="E99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4707,7 +4707,7 @@
         <v>2633.4675292500001</v>
       </c>
       <c r="E100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4724,7 +4724,7 @@
         <v>2683.9650877499998</v>
       </c>
       <c r="E101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4741,7 +4741,7 @@
         <v>2654.5574340000003</v>
       </c>
       <c r="E102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4758,7 +4758,7 @@
         <v>2659.875</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>2657.9699707499999</v>
       </c>
       <c r="E104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -4792,7 +4792,7 @@
         <v>2605.3275149999999</v>
       </c>
       <c r="E105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4809,7 +4809,7 @@
         <v>2651.39245575</v>
       </c>
       <c r="E106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4826,7 +4826,7 @@
         <v>2646.9375</v>
       </c>
       <c r="E107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4843,7 +4843,7 @@
         <v>2732.2575075</v>
       </c>
       <c r="E108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4860,7 +4860,7 @@
         <v>2715.32995575</v>
       </c>
       <c r="E109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4877,7 +4877,7 @@
         <v>2690.1899414999998</v>
       </c>
       <c r="E110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4894,7 +4894,7 @@
         <v>2708.5349122500002</v>
       </c>
       <c r="E111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4911,7 +4911,7 @@
         <v>2692.8674925</v>
       </c>
       <c r="E112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4928,7 +4928,7 @@
         <v>2658.3975217500001</v>
       </c>
       <c r="E113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4945,7 +4945,7 @@
         <v>2646.1799925</v>
       </c>
       <c r="E114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4962,7 +4962,7 @@
         <v>2708.3999632499999</v>
       </c>
       <c r="E115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4979,7 +4979,7 @@
         <v>2712.3074340000003</v>
       </c>
       <c r="E116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4996,7 +4996,7 @@
         <v>2723.3025509999998</v>
       </c>
       <c r="E117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -5013,7 +5013,7 @@
         <v>3009.75</v>
       </c>
       <c r="E118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -5030,7 +5030,7 @@
         <v>2992.7550659999997</v>
       </c>
       <c r="E119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>3001.0125735000001</v>
       </c>
       <c r="E120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -5064,7 +5064,7 @@
         <v>2871.8175659999997</v>
       </c>
       <c r="E121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -5081,7 +5081,7 @@
         <v>2880.8474122500002</v>
       </c>
       <c r="E122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -5098,7 +5098,7 @@
         <v>2837.9099122500002</v>
       </c>
       <c r="E123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -5115,7 +5115,7 @@
         <v>2834.0700075</v>
       </c>
       <c r="E124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -5132,7 +5132,7 @@
         <v>2869.7175292500001</v>
       </c>
       <c r="E125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -5149,7 +5149,7 @@
         <v>2772.70495575</v>
       </c>
       <c r="E126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -5166,7 +5166,7 @@
         <v>2776.1099850000001</v>
       </c>
       <c r="E127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -5183,7 +5183,7 @@
         <v>2820.6000367500001</v>
       </c>
       <c r="E128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -5200,7 +5200,7 @@
         <v>2830.7849122500002</v>
       </c>
       <c r="E129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -5217,7 +5217,7 @@
         <v>2721.3224490000002</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -5234,7 +5234,7 @@
         <v>2716.7924197500001</v>
       </c>
       <c r="E131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -5251,7 +5251,7 @@
         <v>2810.1450802499999</v>
       </c>
       <c r="E132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -5268,7 +5268,7 @@
         <v>2801.1375735000001</v>
       </c>
       <c r="E133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -5285,7 +5285,7 @@
         <v>3004.9500735000001</v>
       </c>
       <c r="E134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -5302,7 +5302,7 @@
         <v>2979.2924197500001</v>
       </c>
       <c r="E135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>2886.9224850000001</v>
       </c>
       <c r="E136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -5336,7 +5336,7 @@
         <v>2873.3999632499999</v>
       </c>
       <c r="E137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -5353,7 +5353,7 @@
         <v>2784.6150509999998</v>
       </c>
       <c r="E138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -5370,7 +5370,7 @@
         <v>2770.1775509999998</v>
       </c>
       <c r="E139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -5387,7 +5387,7 @@
         <v>2611.0949707499999</v>
       </c>
       <c r="E140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -5404,7 +5404,7 @@
         <v>2429.29504425</v>
       </c>
       <c r="E141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -5421,7 +5421,7 @@
         <v>2420.5499264999999</v>
       </c>
       <c r="E142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -5438,7 +5438,7 @@
         <v>2377.1475217500001</v>
       </c>
       <c r="E143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -5455,7 +5455,7 @@
         <v>2385.7274782499999</v>
       </c>
       <c r="E144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -5472,7 +5472,7 @@
         <v>2454.60754425</v>
       </c>
       <c r="E145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -5489,7 +5489,7 @@
         <v>2535.3599850000001</v>
       </c>
       <c r="E146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -5506,7 +5506,7 @@
         <v>2511.7349850000001</v>
       </c>
       <c r="E147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -5523,7 +5523,7 @@
         <v>2562.5775149999999</v>
       </c>
       <c r="E148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -5540,7 +5540,7 @@
         <v>2577.375</v>
       </c>
       <c r="E149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -5557,7 +5557,7 @@
         <v>2471.4074707499999</v>
       </c>
       <c r="E150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -5574,7 +5574,7 @@
         <v>2436</v>
       </c>
       <c r="E151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -5591,7 +5591,7 @@
         <v>2600.9399414999998</v>
       </c>
       <c r="E152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -5608,7 +5608,7 @@
         <v>2789.39245575</v>
       </c>
       <c r="E153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -5625,7 +5625,7 @@
         <v>2828.1899414999998</v>
       </c>
       <c r="E154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -5642,7 +5642,7 @@
         <v>2846.3849490000002</v>
       </c>
       <c r="E155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -5659,7 +5659,7 @@
         <v>3058.2524414999998</v>
       </c>
       <c r="E156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -5676,7 +5676,7 @@
         <v>2956.9650877499998</v>
       </c>
       <c r="E157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -5693,7 +5693,7 @@
         <v>2937.2250367500001</v>
       </c>
       <c r="E158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -5710,7 +5710,7 @@
         <v>3098.0101319999999</v>
       </c>
       <c r="E159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -5727,7 +5727,7 @@
         <v>2867.20495575</v>
       </c>
       <c r="E160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -5744,7 +5744,7 @@
         <v>2709.8325802499999</v>
       </c>
       <c r="E161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -5761,7 +5761,7 @@
         <v>2699.10754425</v>
       </c>
       <c r="E162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -5778,7 +5778,7 @@
         <v>2662.5300292500001</v>
       </c>
       <c r="E163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -5795,7 +5795,7 @@
         <v>2805.8999632499999</v>
       </c>
       <c r="E164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -5812,7 +5812,7 @@
         <v>3117.8924557499995</v>
       </c>
       <c r="E165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -5829,7 +5829,7 @@
         <v>3222.9074707499994</v>
       </c>
       <c r="E166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -5846,7 +5846,7 @@
         <v>3236.6850585000002</v>
       </c>
       <c r="E167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -5863,7 +5863,7 @@
         <v>3126.1875</v>
       </c>
       <c r="E168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -5880,7 +5880,7 @@
         <v>3567.7573245000003</v>
       </c>
       <c r="E169" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -5897,7 +5897,7 @@
         <v>4175.96264625</v>
       </c>
       <c r="E170" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -5914,7 +5914,7 @@
         <v>4143.52514625</v>
       </c>
       <c r="E171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -5931,7 +5931,7 @@
         <v>4115.9025877500007</v>
       </c>
       <c r="E172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -5948,7 +5948,7 @@
         <v>3975.5625</v>
       </c>
       <c r="E173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -5965,7 +5965,7 @@
         <v>4102.4476319999994</v>
       </c>
       <c r="E174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -5982,7 +5982,7 @@
         <v>4736.6850585000002</v>
       </c>
       <c r="E175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -5999,7 +5999,7 @@
         <v>4763.1525877500007</v>
       </c>
       <c r="E176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -6016,7 +6016,7 @@
         <v>4744.7849122499993</v>
       </c>
       <c r="E177" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -6033,7 +6033,7 @@
         <v>4782.1274414999998</v>
       </c>
       <c r="E178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -6050,7 +6050,7 @@
         <v>4764.33764625</v>
       </c>
       <c r="E179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -6067,7 +6067,7 @@
         <v>4828.7025149999999</v>
       </c>
       <c r="E180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -6084,7 +6084,7 @@
         <v>4857.4423829999996</v>
       </c>
       <c r="E181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -6101,7 +6101,7 @@
         <v>4809.4200442500005</v>
       </c>
       <c r="E182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -6118,7 +6118,7 @@
         <v>4805.0174557499995</v>
       </c>
       <c r="E183" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -6135,7 +6135,7 @@
         <v>4763.9399414999998</v>
       </c>
       <c r="E184" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -6152,7 +6152,7 @@
         <v>4752.7199707499994</v>
       </c>
       <c r="E185" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -6169,7 +6169,7 @@
         <v>4778.6773680000006</v>
       </c>
       <c r="E186" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -6186,7 +6186,7 @@
         <v>4741.9500735000001</v>
       </c>
       <c r="E187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -6203,7 +6203,7 @@
         <v>4681.1176754999997</v>
       </c>
       <c r="E188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -6220,7 +6220,7 @@
         <v>4714.72485375</v>
       </c>
       <c r="E189" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -6237,7 +6237,7 @@
         <v>4711.9350585000002</v>
       </c>
       <c r="E190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -6254,7 +6254,7 @@
         <v>4833.5551754999997</v>
       </c>
       <c r="E191" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -6271,7 +6271,7 @@
         <v>4834.46264625</v>
       </c>
       <c r="E192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -6288,7 +6288,7 @@
         <v>4831.3575442500005</v>
       </c>
       <c r="E193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -6305,7 +6305,7 @@
         <v>4824.22485375</v>
       </c>
       <c r="E194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -6322,7 +6322,7 @@
         <v>4849.2974850000001</v>
       </c>
       <c r="E195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -6339,7 +6339,7 @@
         <v>4829.2426754999997</v>
       </c>
       <c r="E196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -6356,7 +6356,7 @@
         <v>4845.2849122499993</v>
       </c>
       <c r="E197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -6373,7 +6373,7 @@
         <v>4855.85266125</v>
       </c>
       <c r="E198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -6390,7 +6390,7 @@
         <v>4796.58764625</v>
       </c>
       <c r="E199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -6407,7 +6407,7 @@
         <v>4837.0198972500002</v>
       </c>
       <c r="E200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -6424,7 +6424,7 @@
         <v>4833.78735375</v>
       </c>
       <c r="E201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -6441,7 +6441,7 @@
         <v>4883.7000735000001</v>
       </c>
       <c r="E202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -6458,7 +6458,7 @@
         <v>4909.1550292500006</v>
       </c>
       <c r="E203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -6475,7 +6475,7 @@
         <v>4683.5775149999999</v>
       </c>
       <c r="E204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -6492,7 +6492,7 @@
         <v>4685.3774414999998</v>
       </c>
       <c r="E205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -6509,7 +6509,7 @@
         <v>4679.1899414999998</v>
       </c>
       <c r="E206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -6526,7 +6526,7 @@
         <v>4630.3948972500002</v>
       </c>
       <c r="E207" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -6543,7 +6543,7 @@
         <v>4628.96264625</v>
       </c>
       <c r="E208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -6560,7 +6560,7 @@
         <v>4865.8948972500002</v>
       </c>
       <c r="E209" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -6577,7 +6577,7 @@
         <v>4942.0426027499998</v>
       </c>
       <c r="E210" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -6594,7 +6594,7 @@
         <v>4923.7573245000003</v>
       </c>
       <c r="E211" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -6611,7 +6611,7 @@
         <v>4901.2650149999999</v>
       </c>
       <c r="E212" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -6628,7 +6628,7 @@
         <v>4922.4375</v>
       </c>
       <c r="E213" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -6645,7 +6645,7 @@
         <v>4910.2349850000001</v>
       </c>
       <c r="E214" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -6662,7 +6662,7 @@
         <v>4865.1448972500002</v>
       </c>
       <c r="E215" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -6679,7 +6679,7 @@
         <v>4821.7349850000001</v>
       </c>
       <c r="E216" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -6696,7 +6696,7 @@
         <v>4858.5300292500006</v>
       </c>
       <c r="E217" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -6713,7 +6713,7 @@
         <v>4882.9050292500006</v>
       </c>
       <c r="E218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -6730,7 +6730,7 @@
         <v>4907.7601319999994</v>
       </c>
       <c r="E219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -6747,7 +6747,7 @@
         <v>4855.6724850000001</v>
       </c>
       <c r="E220" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -6764,7 +6764,7 @@
         <v>4909.0576170000004</v>
       </c>
       <c r="E221" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -6781,7 +6781,7 @@
         <v>4826.0698245000003</v>
       </c>
       <c r="E222" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -6798,7 +6798,7 @@
         <v>4787.3701170000004</v>
       </c>
       <c r="E223" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -6815,7 +6815,7 @@
         <v>4749.9074707499994</v>
       </c>
       <c r="E224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -6832,7 +6832,7 @@
         <v>4918.3648680000006</v>
       </c>
       <c r="E225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -6849,7 +6849,7 @@
         <v>4997.9249264999999</v>
       </c>
       <c r="E226" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -6866,7 +6866,7 @@
         <v>4974.7573245000003</v>
       </c>
       <c r="E227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -6883,7 +6883,7 @@
         <v>4875.7573245000003</v>
       </c>
       <c r="E228" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -6900,7 +6900,7 @@
         <v>4770.9975585000002</v>
       </c>
       <c r="E229" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -6917,7 +6917,7 @@
         <v>4598.2650149999999</v>
       </c>
       <c r="E230" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -6934,7 +6934,7 @@
         <v>4678.6875</v>
       </c>
       <c r="E231" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -6951,7 +6951,7 @@
         <v>4662.6225585000002</v>
       </c>
       <c r="E232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -6968,7 +6968,7 @@
         <v>4803.2325442500005</v>
       </c>
       <c r="E233" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -6985,7 +6985,7 @@
         <v>4855.10266125</v>
       </c>
       <c r="E234" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -7002,7 +7002,7 @@
         <v>4795.3798829999996</v>
       </c>
       <c r="E235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -7019,7 +7019,7 @@
         <v>4752.8100585000002</v>
       </c>
       <c r="E236" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -7036,7 +7036,7 @@
         <v>4656.20983875</v>
       </c>
       <c r="E237" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -7053,7 +7053,7 @@
         <v>4649.3924557499995</v>
       </c>
       <c r="E238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -7070,7 +7070,7 @@
         <v>4685.7301027499998</v>
       </c>
       <c r="E239" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -7087,7 +7087,7 @@
         <v>4621.3725585000002</v>
       </c>
       <c r="E240" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -7104,7 +7104,7 @@
         <v>4601.0698245000003</v>
       </c>
       <c r="E241" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -7121,7 +7121,7 @@
         <v>4759.1099850000001</v>
       </c>
       <c r="E242" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -7138,7 +7138,7 @@
         <v>4721.3323972500002</v>
       </c>
       <c r="E243" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -7155,7 +7155,7 @@
         <v>5020.5450442500005</v>
       </c>
       <c r="E244" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -7172,7 +7172,7 @@
         <v>5435.0698245000003</v>
       </c>
       <c r="E245" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -7189,7 +7189,7 @@
         <v>5403.6676027499998</v>
       </c>
       <c r="E246" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -7206,7 +7206,7 @@
         <v>5358.5324707499994</v>
       </c>
       <c r="E247" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -7223,7 +7223,7 @@
         <v>5269.1850585000002</v>
       </c>
       <c r="E248" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -7240,7 +7240,7 @@
         <v>5177.3100585000002</v>
       </c>
       <c r="E249" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -7257,7 +7257,7 @@
         <v>5114.0174557499995</v>
       </c>
       <c r="E250" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -7274,7 +7274,7 @@
         <v>5208.5698245000003</v>
       </c>
       <c r="E251" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -7291,7 +7291,7 @@
         <v>5157.90014625</v>
       </c>
       <c r="E252" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -7308,7 +7308,7 @@
         <v>5006.1298829999996</v>
       </c>
       <c r="E253" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -7325,7 +7325,7 @@
         <v>4941.3599850000001</v>
       </c>
       <c r="E254" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -7342,7 +7342,7 @@
         <v>5013.1424557499995</v>
       </c>
       <c r="E255" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -7359,7 +7359,7 @@
         <v>4861.3198245000003</v>
       </c>
       <c r="E256" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -7376,7 +7376,7 @@
         <v>4767.7199707499994</v>
       </c>
       <c r="E257" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -7393,7 +7393,7 @@
         <v>4698.2548829999996</v>
       </c>
       <c r="E258" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -7410,7 +7410,7 @@
         <v>4694.8575442500005</v>
       </c>
       <c r="E259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -7427,7 +7427,7 @@
         <v>4686.2926027499998</v>
       </c>
       <c r="E260" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -7444,7 +7444,7 @@
         <v>4747.9200442500005</v>
       </c>
       <c r="E261" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -7461,7 +7461,7 @@
         <v>4741.8299557499995</v>
       </c>
       <c r="E262" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -7478,7 +7478,7 @@
         <v>4725.33764625</v>
       </c>
       <c r="E263" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -7495,7 +7495,7 @@
         <v>4662.9975585000002</v>
       </c>
       <c r="E264" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -7512,7 +7512,7 @@
         <v>4645.2224122499993</v>
       </c>
       <c r="E265" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -7529,7 +7529,7 @@
         <v>4418.9025877500007</v>
       </c>
       <c r="E266" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -7546,7 +7546,7 @@
         <v>4617.77233875</v>
       </c>
       <c r="E267" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -7563,7 +7563,7 @@
         <v>4632.6676027499998</v>
       </c>
       <c r="E268" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -7580,7 +7580,7 @@
         <v>4510.6948245000003</v>
       </c>
       <c r="E269" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -7597,7 +7597,7 @@
         <v>4519.4326170000004</v>
       </c>
       <c r="E270" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -7614,7 +7614,7 @@
         <v>4646.2650149999999</v>
       </c>
       <c r="E271" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -7631,7 +7631,7 @@
         <v>4599.77233875</v>
       </c>
       <c r="E272" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -7648,7 +7648,7 @@
         <v>5013.7650149999999</v>
       </c>
       <c r="E273" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -7665,7 +7665,7 @@
         <v>5141.0925292500006</v>
       </c>
       <c r="E274" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -7682,7 +7682,7 @@
         <v>5173.7325442500005</v>
       </c>
       <c r="E275" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -7699,7 +7699,7 @@
         <v>5205.1124264999999</v>
       </c>
       <c r="E276" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -7716,7 +7716,7 @@
         <v>5472.5698245000003</v>
       </c>
       <c r="E277" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -7733,7 +7733,7 @@
         <v>5603.1448972500002</v>
       </c>
       <c r="E278" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -7750,7 +7750,7 @@
         <v>5586.9825442500005</v>
       </c>
       <c r="E279" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -7767,7 +7767,7 @@
         <v>5747.77514625</v>
       </c>
       <c r="E280" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -7784,7 +7784,7 @@
         <v>5900.5799557499995</v>
       </c>
       <c r="E281" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -7801,7 +7801,7 @@
         <v>6092.64733875</v>
       </c>
       <c r="E282" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -7818,7 +7818,7 @@
         <v>6052.5300292500006</v>
       </c>
       <c r="E283" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -7835,7 +7835,7 @@
         <v>5854.6875</v>
       </c>
       <c r="E284" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -7852,7 +7852,7 @@
         <v>5897.0024414999998</v>
       </c>
       <c r="E285" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -7869,7 +7869,7 @@
         <v>6045.8023680000006</v>
       </c>
       <c r="E286" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -7886,7 +7886,7 @@
         <v>5769.1201170000004</v>
       </c>
       <c r="E287" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -7903,7 +7903,7 @@
         <v>5532.4951170000004</v>
       </c>
       <c r="E288" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -7920,7 +7920,7 @@
         <v>5508.9375</v>
       </c>
       <c r="E289" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -7937,7 +7937,7 @@
         <v>5415.2775877500007</v>
       </c>
       <c r="E290" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -7954,7 +7954,7 @@
         <v>5459.5048829999996</v>
       </c>
       <c r="E291" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -7971,7 +7971,7 @@
         <v>5467.4249264999999</v>
       </c>
       <c r="E292" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -7988,7 +7988,7 @@
         <v>5440.2824707499994</v>
       </c>
       <c r="E293" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -8005,7 +8005,7 @@
         <v>5008.1700442500005</v>
       </c>
       <c r="E294" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -8022,7 +8022,7 @@
         <v>4762.3725585000002</v>
       </c>
       <c r="E295" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -8039,7 +8039,7 @@
         <v>4684.3125</v>
       </c>
       <c r="E296" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -8056,7 +8056,7 @@
         <v>4642.6351319999994</v>
       </c>
       <c r="E297" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -8073,7 +8073,7 @@
         <v>4598.6550292500006</v>
       </c>
       <c r="E298" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -8090,7 +8090,7 @@
         <v>4563</v>
       </c>
       <c r="E299" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -8107,7 +8107,7 @@
         <v>4720.2601319999994</v>
       </c>
       <c r="E300" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -8124,7 +8124,7 @@
         <v>4707.9224850000001</v>
       </c>
       <c r="E301" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -8141,7 +8141,7 @@
         <v>4969.1850585000002</v>
       </c>
       <c r="E302" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -8158,7 +8158,7 @@
         <v>5013.1124264999999</v>
       </c>
       <c r="E303" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -8175,7 +8175,7 @@
         <v>4888.6724850000001</v>
       </c>
       <c r="E304" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -8192,7 +8192,7 @@
         <v>4843.6051027499998</v>
       </c>
       <c r="E305" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -8209,7 +8209,7 @@
         <v>4836.1724850000001</v>
       </c>
       <c r="E306" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -8226,7 +8226,7 @@
         <v>4808.3474122499993</v>
       </c>
       <c r="E307" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -8243,7 +8243,7 @@
         <v>4855.1099850000001</v>
       </c>
       <c r="E308" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -8260,7 +8260,7 @@
         <v>4153.3948972500002</v>
       </c>
       <c r="E309" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -8277,7 +8277,7 @@
         <v>4697.04016125</v>
       </c>
       <c r="E310" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -8294,7 +8294,7 @@
         <v>4645.8823245000003</v>
       </c>
       <c r="E311" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -8311,7 +8311,7 @@
         <v>4359.7650149999999</v>
       </c>
       <c r="E312" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -8328,7 +8328,7 @@
         <v>4383.1948245000003</v>
       </c>
       <c r="E313" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -8345,7 +8345,7 @@
         <v>4516.2674557499995</v>
       </c>
       <c r="E314" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -8362,7 +8362,7 @@
         <v>4550.6176754999997</v>
       </c>
       <c r="E315" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -8379,7 +8379,7 @@
         <v>4571.4375</v>
       </c>
       <c r="E316" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -8396,7 +8396,7 @@
         <v>4336.5974122499993</v>
       </c>
       <c r="E317" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -8413,7 +8413,7 @@
         <v>4524.90014625</v>
       </c>
       <c r="E318" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -8430,7 +8430,7 @@
         <v>4455.9898680000006</v>
       </c>
       <c r="E319" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -8447,7 +8447,7 @@
         <v>5015.7451170000004</v>
       </c>
       <c r="E320" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -8464,7 +8464,7 @@
         <v>4927.4699707499994</v>
       </c>
       <c r="E321" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -8481,7 +8481,7 @@
         <v>5004.15014625</v>
       </c>
       <c r="E322" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -8498,7 +8498,7 @@
         <v>4801.0576170000004</v>
       </c>
       <c r="E323" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -8515,7 +8515,7 @@
         <v>4834.7849122499993</v>
       </c>
       <c r="E324" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -8532,7 +8532,7 @@
         <v>4759.4926754999997</v>
       </c>
       <c r="E325" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -8549,7 +8549,7 @@
         <v>4785.5174557499995</v>
       </c>
       <c r="E326" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -8566,7 +8566,7 @@
         <v>4714.6724850000001</v>
       </c>
       <c r="E327" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -8583,7 +8583,7 @@
         <v>4605.4724122499993</v>
       </c>
       <c r="E328" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -8600,7 +8600,7 @@
         <v>4846.9573972500002</v>
       </c>
       <c r="E329" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -8617,7 +8617,7 @@
         <v>4989.6676027499998</v>
       </c>
       <c r="E330" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -8634,7 +8634,7 @@
         <v>4996.4849850000001</v>
       </c>
       <c r="E331" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
@@ -8651,7 +8651,7 @@
         <v>5621.79016125</v>
       </c>
       <c r="E332" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -8668,7 +8668,7 @@
         <v>5669.625</v>
       </c>
       <c r="E333" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -8685,7 +8685,7 @@
         <v>5738.3474122499993</v>
       </c>
       <c r="E334" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -8702,7 +8702,7 @@
         <v>5628.7349850000001</v>
       </c>
       <c r="E335" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -8719,7 +8719,7 @@
         <v>5546.22766125</v>
       </c>
       <c r="E336" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -8736,7 +8736,7 @@
         <v>5601.9074707499994</v>
       </c>
       <c r="E337" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -8753,7 +8753,7 @@
         <v>5705.0698245000003</v>
       </c>
       <c r="E338" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -8770,7 +8770,7 @@
         <v>5600.8425292500006</v>
       </c>
       <c r="E339" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -8787,7 +8787,7 @@
         <v>5527.7025149999999</v>
       </c>
       <c r="E340" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -8804,7 +8804,7 @@
         <v>5512.1400149999999</v>
       </c>
       <c r="E341" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -8821,7 +8821,7 @@
         <v>5471.83483875</v>
       </c>
       <c r="E342" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
@@ -8838,7 +8838,7 @@
         <v>5301.7573245000003</v>
       </c>
       <c r="E343" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
@@ -8855,7 +8855,7 @@
         <v>5319.6826170000004</v>
       </c>
       <c r="E344" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
@@ -8872,7 +8872,7 @@
         <v>5442.5024414999998</v>
       </c>
       <c r="E345" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -8889,7 +8889,7 @@
         <v>5486.0324707499994</v>
       </c>
       <c r="E346" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -8906,7 +8906,7 @@
         <v>5510.9699707499994</v>
       </c>
       <c r="E347" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
@@ -8923,7 +8923,7 @@
         <v>5462.8275149999999</v>
       </c>
       <c r="E348" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
@@ -8940,7 +8940,7 @@
         <v>5595.4951170000004</v>
       </c>
       <c r="E349" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -8957,7 +8957,7 @@
         <v>5971.8226319999994</v>
       </c>
       <c r="E350" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -8974,7 +8974,7 @@
         <v>6260.9099122499993</v>
       </c>
       <c r="E351" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -8991,7 +8991,7 @@
         <v>6136.0949707499994</v>
       </c>
       <c r="E352" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
@@ -9008,7 +9008,7 @@
         <v>6120.59985375</v>
       </c>
       <c r="E353" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
@@ -9025,7 +9025,7 @@
         <v>5955.2625735000001</v>
       </c>
       <c r="E354" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -9042,7 +9042,7 @@
         <v>6011.8275149999999</v>
       </c>
       <c r="E355" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
@@ -9059,7 +9059,7 @@
         <v>6089.3774414999998</v>
       </c>
       <c r="E356" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -9076,7 +9076,7 @@
         <v>6330.9375</v>
       </c>
       <c r="E357" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
@@ -9093,7 +9093,7 @@
         <v>6234.5397952499998</v>
       </c>
       <c r="E358" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
@@ -9110,7 +9110,7 @@
         <v>6263.1826170000004</v>
       </c>
       <c r="E359" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -9127,7 +9127,7 @@
         <v>6169.4772952499998</v>
       </c>
       <c r="E360" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
@@ -9144,7 +9144,7 @@
         <v>6272.625</v>
       </c>
       <c r="E361" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -9161,7 +9161,7 @@
         <v>6762.8474122499993</v>
       </c>
       <c r="E362" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
@@ -9178,7 +9178,7 @@
         <v>6740.4521482500004</v>
       </c>
       <c r="E363" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
@@ -9195,7 +9195,7 @@
         <v>6797.3027347500001</v>
       </c>
       <c r="E364" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -9212,7 +9212,7 @@
         <v>6901.5974122499993</v>
       </c>
       <c r="E365" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
@@ -9229,7 +9229,7 @@
         <v>7081.4472660000001</v>
       </c>
       <c r="E366" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
@@ -9246,7 +9246,7 @@
         <v>7265.3173829999996</v>
       </c>
       <c r="E367" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -9263,7 +9263,7 @@
         <v>7160.4074707500004</v>
       </c>
       <c r="E368" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -9280,7 +9280,7 @@
         <v>6879.2102047500002</v>
       </c>
       <c r="E369" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
@@ -9297,7 +9297,7 @@
         <v>6745.3652347500001</v>
       </c>
       <c r="E370" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
@@ -9314,7 +9314,7 @@
         <v>6638.3247067500006</v>
       </c>
       <c r="E371" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
@@ -9331,7 +9331,7 @@
         <v>6850.1997067500006</v>
       </c>
       <c r="E372" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -9348,7 +9348,7 @@
         <v>6891.8027347500001</v>
       </c>
       <c r="E373" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
@@ -9365,7 +9365,7 @@
         <v>6669.3896482500004</v>
       </c>
       <c r="E374" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
@@ -9382,7 +9382,7 @@
         <v>6692.6103517499996</v>
       </c>
       <c r="E375" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
@@ -9399,7 +9399,7 @@
         <v>6502.0349122499993</v>
       </c>
       <c r="E376" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
@@ -9416,7 +9416,7 @@
         <v>6567.7946775</v>
       </c>
       <c r="E377" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
@@ -9433,7 +9433,7 @@
         <v>6718.2597660000001</v>
       </c>
       <c r="E378" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
@@ -9450,7 +9450,7 @@
         <v>6603.15014625</v>
       </c>
       <c r="E379" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
@@ -9467,7 +9467,7 @@
         <v>6591.3303225</v>
       </c>
       <c r="E380" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
@@ -9484,7 +9484,7 @@
         <v>6473.3847660000001</v>
       </c>
       <c r="E381" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
@@ -9501,7 +9501,7 @@
         <v>6182.6176755000006</v>
       </c>
       <c r="E382" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
@@ -9518,7 +9518,7 @@
         <v>6102.3149414999998</v>
       </c>
       <c r="E383" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
@@ -9535,7 +9535,7 @@
         <v>5931.6899414999998</v>
       </c>
       <c r="E384" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
@@ -9552,7 +9552,7 @@
         <v>5893.5900877500007</v>
       </c>
       <c r="E385" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -9569,7 +9569,7 @@
         <v>5946.9301754999997</v>
       </c>
       <c r="E386" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
@@ -9586,7 +9586,7 @@
         <v>6015.7800292500006</v>
       </c>
       <c r="E387" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
@@ -9603,7 +9603,7 @@
         <v>5880.8924557499995</v>
       </c>
       <c r="E388" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
@@ -9620,7 +9620,7 @@
         <v>5819.09985375</v>
       </c>
       <c r="E389" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
@@ -9637,7 +9637,7 @@
         <v>5093.4975585000002</v>
       </c>
       <c r="E390" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
@@ -9654,7 +9654,7 @@
         <v>5129.3701170000004</v>
       </c>
       <c r="E391" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
@@ -9671,7 +9671,7 @@
         <v>5007.54016125</v>
       </c>
       <c r="E392" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
@@ -9688,7 +9688,7 @@
         <v>4975.2674557499995</v>
       </c>
       <c r="E393" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -9705,7 +9705,7 @@
         <v>5183.2650149999999</v>
       </c>
       <c r="E394" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -9722,7 +9722,7 @@
         <v>4968.35266125</v>
       </c>
       <c r="E395" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
@@ -9739,7 +9739,7 @@
         <v>4895.0024414999998</v>
       </c>
       <c r="E396" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -9756,7 +9756,7 @@
         <v>4951.7849122499993</v>
       </c>
       <c r="E397" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
@@ -9773,7 +9773,7 @@
         <v>5045.3173829999996</v>
       </c>
       <c r="E398" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
@@ -9790,7 +9790,7 @@
         <v>5279.9099122499993</v>
       </c>
       <c r="E399" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
@@ -9807,7 +9807,7 @@
         <v>5094.22485375</v>
       </c>
       <c r="E400" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
@@ -9824,7 +9824,7 @@
         <v>4847.6550292500006</v>
       </c>
       <c r="E401" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
@@ -9841,7 +9841,7 @@
         <v>5104.7548829999996</v>
       </c>
       <c r="E402" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
@@ -9858,7 +9858,7 @@
         <v>4946.4448245000003</v>
       </c>
       <c r="E403" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -9875,7 +9875,7 @@
         <v>5195.3323972500002</v>
       </c>
       <c r="E404" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
@@ -9892,7 +9892,7 @@
         <v>5814.4500735000001</v>
       </c>
       <c r="E405" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
@@ -9909,7 +9909,7 @@
         <v>5814.22485375</v>
       </c>
       <c r="E406" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -9926,7 +9926,7 @@
         <v>6296.8872067500006</v>
       </c>
       <c r="E407" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
@@ -9943,7 +9943,7 @@
         <v>5901.9525149999999</v>
       </c>
       <c r="E408" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -9960,7 +9960,7 @@
         <v>6386.6477047500002</v>
       </c>
       <c r="E409" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
@@ -9977,7 +9977,7 @@
         <v>6230.6850585000011</v>
       </c>
       <c r="E410" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
@@ -9994,7 +9994,7 @@
         <v>6375.6599122499993</v>
       </c>
       <c r="E411" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
@@ -10011,7 +10011,7 @@
         <v>6584.0178225</v>
       </c>
       <c r="E412" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -10028,7 +10028,7 @@
         <v>6254.84985375</v>
       </c>
       <c r="E413" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
@@ -10045,7 +10045,7 @@
         <v>6097.2451170000004</v>
       </c>
       <c r="E414" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -10062,7 +10062,7 @@
         <v>5488.8449707499994</v>
       </c>
       <c r="E415" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
@@ -10079,7 +10079,7 @@
         <v>5824.0576170000004</v>
       </c>
       <c r="E416" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
@@ -10096,7 +10096,7 @@
         <v>5943.0823972500002</v>
       </c>
       <c r="E417" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
@@ -10113,7 +10113,7 @@
         <v>5773.85266125</v>
       </c>
       <c r="E418" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
@@ -10130,7 +10130,7 @@
         <v>5975.2049557499995</v>
       </c>
       <c r="E419" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
@@ -10147,7 +10147,7 @@
         <v>6642.4877932499994</v>
       </c>
       <c r="E420" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
@@ -10164,7 +10164,7 @@
         <v>6597.3896482500004</v>
       </c>
       <c r="E421" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
@@ -10181,7 +10181,7 @@
         <v>6363.2402347500001</v>
       </c>
       <c r="E422" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
@@ -10198,7 +10198,7 @@
         <v>6545.5722660000001</v>
       </c>
       <c r="E423" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -10215,7 +10215,7 @@
         <v>6295.08764625</v>
       </c>
       <c r="E424" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -10232,7 +10232,7 @@
         <v>6815.1372067500006</v>
       </c>
       <c r="E425" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
@@ -10249,7 +10249,7 @@
         <v>7103.0478517499996</v>
       </c>
       <c r="E426" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
@@ -10266,7 +10266,7 @@
         <v>7941.9602047500002</v>
       </c>
       <c r="E427" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -10283,7 +10283,7 @@
         <v>8573.66235375</v>
       </c>
       <c r="E428" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
@@ -10300,7 +10300,7 @@
         <v>8313.0073244999985</v>
       </c>
       <c r="E429" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -10317,7 +10317,7 @@
         <v>8282.3400877500007</v>
       </c>
       <c r="E430" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -10334,7 +10334,7 @@
         <v>8101.08764625</v>
       </c>
       <c r="E431" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -10351,7 +10351,7 @@
         <v>7685.6696775</v>
       </c>
       <c r="E432" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
@@ -10368,7 +10368,7 @@
         <v>7727.3547360000002</v>
       </c>
       <c r="E433" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
@@ -10385,7 +10385,7 @@
         <v>7615.6801755000006</v>
       </c>
       <c r="E434" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
@@ -10402,7 +10402,7 @@
         <v>7058.8652347500001</v>
       </c>
       <c r="E435" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
@@ -10419,7 +10419,7 @@
         <v>6997.0803225</v>
       </c>
       <c r="E436" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
@@ -10436,7 +10436,7 @@
         <v>7047.4050292499996</v>
       </c>
       <c r="E437" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
@@ -10453,7 +10453,7 @@
         <v>7203</v>
       </c>
       <c r="E438" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -10470,7 +10470,7 @@
         <v>7317.8928225</v>
       </c>
       <c r="E439" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
@@ -10487,7 +10487,7 @@
         <v>7692.1574707500004</v>
       </c>
       <c r="E440" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
@@ -10504,7 +10504,7 @@
         <v>8348.21264625</v>
       </c>
       <c r="E441" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
@@ -10521,7 +10521,7 @@
         <v>7752.2402347500001</v>
       </c>
       <c r="E442" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
@@ -10538,7 +10538,7 @@
         <v>7620.7573244999994</v>
       </c>
       <c r="E443" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
@@ -10555,7 +10555,7 @@
         <v>7555.5527347500001</v>
       </c>
       <c r="E444" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -10572,7 +10572,7 @@
         <v>7290.2849122499993</v>
       </c>
       <c r="E445" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
@@ -10589,7 +10589,7 @@
         <v>7022.5349122499993</v>
       </c>
       <c r="E446" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -10606,7 +10606,7 @@
         <v>6407.2353517499996</v>
       </c>
       <c r="E447" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
@@ -10623,7 +10623,7 @@
         <v>6284.5122067500006</v>
       </c>
       <c r="E448" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
@@ -10640,7 +10640,7 @@
         <v>6063.3076170000004</v>
       </c>
       <c r="E449" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
@@ -10657,7 +10657,7 @@
         <v>5896.7325442500005</v>
       </c>
       <c r="E450" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
@@ -10674,7 +10674,7 @@
         <v>6132.1875</v>
       </c>
       <c r="E451" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
@@ -10691,7 +10691,7 @@
         <v>5831.5198972500002</v>
       </c>
       <c r="E452" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
@@ -10708,7 +10708,7 @@
         <v>5692.8599850000001</v>
       </c>
       <c r="E453" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
@@ -10725,7 +10725,7 @@
         <v>5406.6448972500002</v>
       </c>
       <c r="E454" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -10742,7 +10742,7 @@
         <v>4476.2698972500002</v>
       </c>
       <c r="E455" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
@@ -10759,7 +10759,7 @@
         <v>4970.4825442500005</v>
       </c>
       <c r="E456" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -10776,7 +10776,7 @@
         <v>5917.3725585000002</v>
       </c>
       <c r="E457" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
@@ -10793,7 +10793,7 @@
         <v>6146.0097660000001</v>
       </c>
       <c r="E458" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -10810,7 +10810,7 @@
         <v>5839.65014625</v>
       </c>
       <c r="E459" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
@@ -10827,7 +10827,7 @@
         <v>6545.21264625</v>
       </c>
       <c r="E460" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
@@ -10844,7 +10844,7 @@
         <v>7273.5974122499993</v>
       </c>
       <c r="E461" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
@@ -10861,7 +10861,7 @@
         <v>7403.4074707500004</v>
       </c>
       <c r="E462" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
@@ -10878,7 +10878,7 @@
         <v>8317.1396482500004</v>
       </c>
       <c r="E463" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -10895,7 +10895,7 @@
         <v>8555.9553225</v>
       </c>
       <c r="E464" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
@@ -10912,7 +10912,7 @@
         <v>8159.40014625</v>
       </c>
       <c r="E465" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
@@ -10929,7 +10929,7 @@
         <v>7760.1452639999998</v>
       </c>
       <c r="E466" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
@@ -10946,7 +10946,7 @@
         <v>8197.7548829999996</v>
       </c>
       <c r="E467" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
@@ -10963,7 +10963,7 @@
         <v>7879.91235375</v>
       </c>
       <c r="E468" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
@@ -10980,7 +10980,7 @@
         <v>7485.375</v>
       </c>
       <c r="E469" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
@@ -10997,7 +10997,7 @@
         <v>7550.8198244999994</v>
       </c>
       <c r="E470" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
@@ -11014,7 +11014,7 @@
         <v>8326.2978517499996</v>
       </c>
       <c r="E471" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
@@ -11031,7 +11031,7 @@
         <v>8626.5827639999989</v>
       </c>
       <c r="E472" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
@@ -11048,7 +11048,7 @@
         <v>8150.3847660000001</v>
       </c>
       <c r="E473" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
@@ -11065,7 +11065,7 @@
         <v>7981.7475585000011</v>
       </c>
       <c r="E474" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
@@ -11082,7 +11082,7 @@
         <v>6904.0349122499993</v>
       </c>
       <c r="E475" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
         <v>7524.5178225</v>
       </c>
       <c r="E476" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
@@ -11116,7 +11116,7 @@
         <v>10062.53247075</v>
       </c>
       <c r="E477" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
@@ -11133,7 +11133,7 @@
         <v>9773.9326170000004</v>
       </c>
       <c r="E478" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
@@ -11150,7 +11150,7 @@
         <v>10372.710204750001</v>
       </c>
       <c r="E479" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
@@ -11167,7 +11167,7 @@
         <v>9638.9326170000004</v>
       </c>
       <c r="E480" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
@@ -11184,7 +11184,7 @@
         <v>9619.46264625</v>
       </c>
       <c r="E481" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
@@ -11201,7 +11201,7 @@
         <v>10087.90502925</v>
       </c>
       <c r="E482" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
@@ -11218,7 +11218,7 @@
         <v>10666.16235375</v>
       </c>
       <c r="E483" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
@@ -11235,7 +11235,7 @@
         <v>10426.7321775</v>
       </c>
       <c r="E484" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
@@ -11252,7 +11252,7 @@
         <v>11843.347412249999</v>
       </c>
       <c r="E485" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
@@ -11269,7 +11269,7 @@
         <v>12214.927734749999</v>
       </c>
       <c r="E486" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
@@ -11286,7 +11286,7 @@
         <v>11124.270263999999</v>
       </c>
       <c r="E487" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
@@ -11303,7 +11303,7 @@
         <v>10683.502441499999</v>
       </c>
       <c r="E488" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
@@ -11320,7 +11320,7 @@
         <v>10934.78247075</v>
       </c>
       <c r="E489" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
@@ -11337,7 +11337,7 @@
         <v>9700.6201170000004</v>
       </c>
       <c r="E490" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
@@ -11354,7 +11354,7 @@
         <v>9658.2524414999989</v>
       </c>
       <c r="E491" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
@@ -11371,7 +11371,7 @@
         <v>9269.5722659999992</v>
       </c>
       <c r="E492" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
@@ -11388,7 +11388,7 @@
         <v>8971.5673829999996</v>
       </c>
       <c r="E493" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
@@ -11405,7 +11405,7 @@
         <v>10463.310058500001</v>
       </c>
       <c r="E494" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
@@ -11422,7 +11422,7 @@
         <v>10099.552734749999</v>
       </c>
       <c r="E495" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
@@ -11439,7 +11439,7 @@
         <v>10900.995117</v>
       </c>
       <c r="E496" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
@@ -11456,7 +11456,7 @@
         <v>10311.367675500001</v>
       </c>
       <c r="E497" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
@@ -11473,7 +11473,7 @@
         <v>9758.0324707500004</v>
       </c>
       <c r="E498" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
@@ -11490,7 +11490,7 @@
         <v>9124.83764625</v>
       </c>
       <c r="E499" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
@@ -11507,7 +11507,7 @@
         <v>10017.052734749999</v>
       </c>
       <c r="E500" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
@@ -11524,7 +11524,7 @@
         <v>8156.7824707500004</v>
       </c>
       <c r="E501" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
@@ -11541,7 +11541,7 @@
         <v>11214.73535175</v>
       </c>
       <c r="E502" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
@@ -11558,7 +11558,7 @@
         <v>11732.0178225</v>
       </c>
       <c r="E503" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
@@ -11575,7 +11575,7 @@
         <v>12609.600585750002</v>
       </c>
       <c r="E504" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
@@ -11592,7 +11592,7 @@
         <v>13585.814941500001</v>
       </c>
       <c r="E505" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
@@ -11609,7 +11609,7 @@
         <v>14063.182617000002</v>
       </c>
       <c r="E506" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
@@ -11626,7 +11626,7 @@
         <v>12988.904297249999</v>
       </c>
       <c r="E507" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
@@ -11643,7 +11643,7 @@
         <v>12331.649414249998</v>
       </c>
       <c r="E508" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
@@ -11660,7 +11660,7 @@
         <v>12017.729736000001</v>
       </c>
       <c r="E509" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
@@ -11677,7 +11677,7 @@
         <v>11752.395263999999</v>
       </c>
       <c r="E510" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
@@ -11694,7 +11694,7 @@
         <v>12190.897704750001</v>
       </c>
       <c r="E511" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
@@ -11711,7 +11711,7 @@
         <v>11268.4196775</v>
       </c>
       <c r="E512" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
@@ -11728,7 +11728,7 @@
         <v>9773.25</v>
       </c>
       <c r="E513" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
@@ -11745,7 +11745,7 @@
         <v>9863.6022952499989</v>
       </c>
       <c r="E514" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
@@ -11762,7 +11762,7 @@
         <v>10429.574706750001</v>
       </c>
       <c r="E515" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
@@ -11779,7 +11779,7 @@
         <v>10051.207763999999</v>
       </c>
       <c r="E516" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
@@ -11796,7 +11796,7 @@
         <v>8746.3198244999985</v>
       </c>
       <c r="E517" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
@@ -11813,7 +11813,7 @@
         <v>8614.5974122499993</v>
       </c>
       <c r="E518" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
@@ -11830,7 +11830,7 @@
         <v>8188.3571775</v>
       </c>
       <c r="E519" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
@@ -11847,7 +11847,7 @@
         <v>7933.8222660000001</v>
       </c>
       <c r="E520" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
@@ -11864,7 +11864,7 @@
         <v>8036.66235375</v>
       </c>
       <c r="E521" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
@@ -11881,7 +11881,7 @@
         <v>7065.6972660000001</v>
       </c>
       <c r="E522" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
@@ -11898,7 +11898,7 @@
         <v>6767.8271482500004</v>
       </c>
       <c r="E523" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
@@ -11915,7 +11915,7 @@
         <v>6704.02514625</v>
       </c>
       <c r="E524" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
@@ -11932,7 +11932,7 @@
         <v>7228.65014625</v>
       </c>
       <c r="E525" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
@@ -11949,7 +11949,7 @@
         <v>6987.6298829999996</v>
       </c>
       <c r="E526" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
@@ -11966,7 +11966,7 @@
         <v>6559.9196775</v>
       </c>
       <c r="E527" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
@@ -11983,7 +11983,7 @@
         <v>6115.27514625</v>
       </c>
       <c r="E528" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
@@ -12000,7 +12000,7 @@
         <v>5925.1274414999998</v>
       </c>
       <c r="E529" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
@@ -12017,7 +12017,7 @@
         <v>6009.2625735000001</v>
       </c>
       <c r="E530" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
@@ -12034,7 +12034,7 @@
         <v>6068.7224122499993</v>
       </c>
       <c r="E531" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
@@ -12051,7 +12051,7 @@
         <v>5864.2950442500005</v>
       </c>
       <c r="E532" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
@@ -12068,7 +12068,7 @@
         <v>5960.45983875</v>
       </c>
       <c r="E533" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
@@ -12085,7 +12085,7 @@
         <v>5756.5576170000004</v>
       </c>
       <c r="E534" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
@@ -12102,7 +12102,7 @@
         <v>5594.1749264999999</v>
       </c>
       <c r="E535" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
@@ -12119,7 +12119,7 @@
         <v>5651.02514625</v>
       </c>
       <c r="E536" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
@@ -12136,7 +12136,7 @@
         <v>5339.3774414999998</v>
       </c>
       <c r="E537" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
@@ -12153,7 +12153,7 @@
         <v>4947.7049557499995</v>
       </c>
       <c r="E538" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
@@ -12170,7 +12170,7 @@
         <v>4814.3851319999994</v>
       </c>
       <c r="E539" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
@@ -12187,7 +12187,7 @@
         <v>4371.2548829999996</v>
       </c>
       <c r="E540" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
@@ -12204,7 +12204,7 @@
         <v>4120.2301027499998</v>
       </c>
       <c r="E541" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
@@ -12221,7 +12221,7 @@
         <v>4648.4025877500007</v>
       </c>
       <c r="E542" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
@@ -12238,7 +12238,7 @@
         <v>4804.53735375</v>
       </c>
       <c r="E543" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
@@ -12255,7 +12255,7 @@
         <v>5280.6225585000002</v>
       </c>
       <c r="E544" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
@@ -12272,7 +12272,7 @@
         <v>5270.22766125</v>
       </c>
       <c r="E545" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
@@ -12289,7 +12289,7 @@
         <v>5218.34985375</v>
       </c>
       <c r="E546" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
@@ -12306,7 +12306,7 @@
         <v>5201.0474850000001</v>
       </c>
       <c r="E547" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
@@ -12323,7 +12323,7 @@
         <v>5463.2475585000002</v>
       </c>
       <c r="E548" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
@@ -12340,7 +12340,7 @@
         <v>5218.3798829999996</v>
       </c>
       <c r="E549" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
@@ -12357,7 +12357,7 @@
         <v>5204.1976319999994</v>
       </c>
       <c r="E550" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
@@ -12374,7 +12374,7 @@
         <v>5053.3275149999999</v>
       </c>
       <c r="E551" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
@@ -12391,7 +12391,7 @@
         <v>4766.25</v>
       </c>
       <c r="E552" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
@@ -12408,7 +12408,7 @@
         <v>4568.1225585000002</v>
       </c>
       <c r="E553" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
@@ -12425,7 +12425,7 @@
         <v>4514.22766125</v>
       </c>
       <c r="E554" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
@@ -12442,7 +12442,7 @@
         <v>4259.5275877500007</v>
       </c>
       <c r="E555" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
@@ -12459,7 +12459,7 @@
         <v>4241.09985375</v>
       </c>
       <c r="E556" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
@@ -12476,7 +12476,7 @@
         <v>4269.2398680000006</v>
       </c>
       <c r="E557" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
@@ -12493,7 +12493,7 @@
         <v>4267.4399414999998</v>
       </c>
       <c r="E558" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
@@ -12510,7 +12510,7 @@
         <v>4031.7301027500002</v>
       </c>
       <c r="E559" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
@@ -12527,7 +12527,7 @@
         <v>4097.5576170000004</v>
       </c>
       <c r="E560" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
@@ -12544,7 +12544,7 @@
         <v>4233.16516125</v>
       </c>
       <c r="E561" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
@@ -12561,7 +12561,7 @@
         <v>4292.2349850000001</v>
       </c>
       <c r="E562" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
@@ -12578,7 +12578,7 @@
         <v>4405.9050292500006</v>
       </c>
       <c r="E563" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
@@ -12595,7 +12595,7 @@
         <v>4208.5426027499998</v>
       </c>
       <c r="E564" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
@@ -12612,7 +12612,7 @@
         <v>4138.2150877500007</v>
       </c>
       <c r="E565" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
@@ -12629,7 +12629,7 @@
         <v>3836.1525877500003</v>
       </c>
       <c r="E566" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
@@ -12646,7 +12646,7 @@
         <v>4140.8173829999996</v>
       </c>
       <c r="E567" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
@@ -12663,7 +12663,7 @@
         <v>4182.0750735000001</v>
       </c>
       <c r="E568" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
@@ -12680,7 +12680,7 @@
         <v>4086.16516125</v>
       </c>
       <c r="E569" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
@@ -12697,7 +12697,7 @@
         <v>4176.6448972500002</v>
       </c>
       <c r="E570" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
@@ -12714,7 +12714,7 @@
         <v>4043.97766125</v>
       </c>
       <c r="E571" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
@@ -12731,7 +12731,7 @@
         <v>3611.2349850000001</v>
       </c>
       <c r="E572" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
@@ -12748,7 +12748,7 @@
         <v>3538.9500735000001</v>
       </c>
       <c r="E573" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
@@ -12765,7 +12765,7 @@
         <v>3542.1075442500005</v>
       </c>
       <c r="E574" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
@@ -12782,7 +12782,7 @@
         <v>3417.1124264999999</v>
       </c>
       <c r="E575" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
@@ -12799,7 +12799,7 @@
         <v>3314.5198972499998</v>
       </c>
       <c r="E576" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
@@ -12816,7 +12816,7 @@
         <v>3239.6099850000001</v>
       </c>
       <c r="E577" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
@@ -12833,7 +12833,7 @@
         <v>3222.6976319999999</v>
       </c>
       <c r="E578" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
@@ -12850,7 +12850,7 @@
         <v>3107.5125735000001</v>
       </c>
       <c r="E579" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
@@ -12867,7 +12867,7 @@
         <v>3137.6773680000001</v>
       </c>
       <c r="E580" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
@@ -12884,7 +12884,7 @@
         <v>3173.0474850000001</v>
       </c>
       <c r="E581" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
@@ -12901,7 +12901,7 @@
         <v>3273.5024414999998</v>
       </c>
       <c r="E582" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
@@ -12918,7 +12918,7 @@
         <v>3193.7398680000001</v>
       </c>
       <c r="E583" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
@@ -12935,7 +12935,7 @@
         <v>3123.1875</v>
       </c>
       <c r="E584" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
@@ -12952,7 +12952,7 @@
         <v>3022.7775877499998</v>
       </c>
       <c r="E585" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
@@ -12969,7 +12969,7 @@
         <v>3084.6599122499997</v>
       </c>
       <c r="E586" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
@@ -12986,7 +12986,7 @@
         <v>2911.5600585000002</v>
       </c>
       <c r="E587" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
@@ -13003,7 +13003,7 @@
         <v>2894.0625</v>
       </c>
       <c r="E588" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
         <v>2749.2524414999998</v>
       </c>
       <c r="E589" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.2">
@@ -13037,7 +13037,7 @@
         <v>2725.4099122500002</v>
       </c>
       <c r="E590" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.2">
@@ -13054,7 +13054,7 @@
         <v>2672.3849490000002</v>
       </c>
       <c r="E591" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.2">
@@ -13071,7 +13071,7 @@
         <v>2629.35754425</v>
       </c>
       <c r="E592" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.2">
@@ -13088,7 +13088,7 @@
         <v>2682.4050292500001</v>
       </c>
       <c r="E593" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
@@ -13105,7 +13105,7 @@
         <v>2885.0700075</v>
       </c>
       <c r="E594" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
@@ -13122,7 +13122,7 @@
         <v>2889.1649782499999</v>
       </c>
       <c r="E595" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
@@ -13139,7 +13139,7 @@
         <v>2766.75</v>
       </c>
       <c r="E596" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.2">
@@ -13156,7 +13156,7 @@
         <v>2614.3725585000002</v>
       </c>
       <c r="E597" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
@@ -13173,7 +13173,7 @@
         <v>2663.8725585000002</v>
       </c>
       <c r="E598" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
@@ -13190,7 +13190,7 @@
         <v>2234.9099122500002</v>
       </c>
       <c r="E599" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
@@ -13207,7 +13207,7 @@
         <v>2414.2349850000001</v>
       </c>
       <c r="E600" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
@@ -13224,7 +13224,7 @@
         <v>2814.0075075</v>
       </c>
       <c r="E601" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.2">
@@ -13241,7 +13241,7 @@
         <v>3056.2274782499999</v>
       </c>
       <c r="E602" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.2">
@@ -13258,7 +13258,7 @@
         <v>3100.9650877500003</v>
       </c>
       <c r="E603" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.2">
@@ -13275,7 +13275,7 @@
         <v>3024.1124264999999</v>
       </c>
       <c r="E604" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.2">
@@ -13292,7 +13292,7 @@
         <v>3138.9975585000002</v>
       </c>
       <c r="E605" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.2">
@@ -13309,7 +13309,7 @@
         <v>3098.1599122499997</v>
       </c>
       <c r="E606" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.2">
@@ -13326,7 +13326,7 @@
         <v>3369.90014625</v>
       </c>
       <c r="E607" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
@@ -13343,7 +13343,7 @@
         <v>3301.14733875</v>
       </c>
       <c r="E608" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
@@ -13360,7 +13360,7 @@
         <v>3003.4650877499998</v>
       </c>
       <c r="E609" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.2">
@@ -13377,7 +13377,7 @@
         <v>3073.9350585000002</v>
       </c>
       <c r="E610" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.2">
@@ -13394,7 +13394,7 @@
         <v>3298.3051754999997</v>
       </c>
       <c r="E611" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.2">
@@ -13411,7 +13411,7 @@
         <v>3336.4801027500002</v>
       </c>
       <c r="E612" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.2">
@@ -13428,7 +13428,7 @@
         <v>3517.6274414999998</v>
       </c>
       <c r="E613" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.2">
@@ -13445,7 +13445,7 @@
         <v>3435.0974122499997</v>
       </c>
       <c r="E614" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.2">
@@ -13462,7 +13462,7 @@
         <v>3368.8425292500006</v>
       </c>
       <c r="E615" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.2">
@@ -13479,7 +13479,7 @@
         <v>3262.66516125</v>
       </c>
       <c r="E616" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.2">
@@ -13496,7 +13496,7 @@
         <v>3146.4224850000001</v>
       </c>
       <c r="E617" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.2">
@@ -13513,7 +13513,7 @@
         <v>3240.8400877500003</v>
       </c>
       <c r="E618" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.2">
@@ -13530,7 +13530,7 @@
         <v>3197.45983875</v>
       </c>
       <c r="E619" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.2">
@@ -13547,7 +13547,7 @@
         <v>3219.4724122499997</v>
       </c>
       <c r="E620" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.2">
@@ -13564,7 +13564,7 @@
         <v>3083.7824707499994</v>
       </c>
       <c r="E621" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.2">
@@ -13581,7 +13581,7 @@
         <v>3052.8674925</v>
       </c>
       <c r="E622" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.2">
@@ -13598,7 +13598,7 @@
         <v>2709.1574707499999</v>
       </c>
       <c r="E623" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.2">
@@ -13615,7 +13615,7 @@
         <v>2975.1974490000002</v>
       </c>
       <c r="E624" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
@@ -13632,7 +13632,7 @@
         <v>3025.7999264999999</v>
       </c>
       <c r="E625" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
@@ -13649,7 +13649,7 @@
         <v>2968.0949707499999</v>
       </c>
       <c r="E626" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
@@ -13666,7 +13666,7 @@
         <v>2983.7100217500001</v>
       </c>
       <c r="E627" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
@@ -13683,7 +13683,7 @@
         <v>3145.5750735000001</v>
       </c>
       <c r="E628" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
@@ -13700,7 +13700,7 @@
         <v>2953.9650877499998</v>
       </c>
       <c r="E629" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
@@ -13717,7 +13717,7 @@
         <v>2877.8474122500002</v>
       </c>
       <c r="E630" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
@@ -13734,7 +13734,7 @@
         <v>2984.2124632499999</v>
       </c>
       <c r="E631" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
@@ -13751,7 +13751,7 @@
         <v>2885.48254425</v>
       </c>
       <c r="E632" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.2">
@@ -13768,7 +13768,7 @@
         <v>2708.5200802499999</v>
       </c>
       <c r="E633" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
         <v>2557.3425292500001</v>
       </c>
       <c r="E634" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
@@ -13802,7 +13802,7 @@
         <v>2492.1899414999998</v>
       </c>
       <c r="E635" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
@@ -13819,7 +13819,7 @@
         <v>2438.2725217500001</v>
       </c>
       <c r="E636" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
@@ -13836,7 +13836,7 @@
         <v>2517.8624264999999</v>
       </c>
       <c r="E637" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
@@ -13853,7 +13853,7 @@
         <v>2398.8825075</v>
       </c>
       <c r="E638" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
@@ -13870,7 +13870,7 @@
         <v>2374.8900149999999</v>
       </c>
       <c r="E639" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
@@ -13887,7 +13887,7 @@
         <v>2156.9324340000003</v>
       </c>
       <c r="E640" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.2">
@@ -13904,7 +13904,7 @@
         <v>2084.6325075</v>
       </c>
       <c r="E641" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.2">
@@ -13921,7 +13921,7 @@
         <v>2038.2150877499998</v>
       </c>
       <c r="E642" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.2">
@@ -13938,7 +13938,7 @@
         <v>2001.6525877499998</v>
       </c>
       <c r="E643" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.2">
@@ -13955,7 +13955,7 @@
         <v>1994.7150877499998</v>
       </c>
       <c r="E644" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.2">
@@ -13972,7 +13972,7 @@
         <v>2042.2875367500001</v>
       </c>
       <c r="E645" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.2">
@@ -13989,7 +13989,7 @@
         <v>1966.259949</v>
       </c>
       <c r="E646" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.2">
@@ -14006,7 +14006,7 @@
         <v>2024.5649415</v>
       </c>
       <c r="E647" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.2">
@@ -14023,7 +14023,7 @@
         <v>2012.6925659999999</v>
       </c>
       <c r="E648" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.2">
@@ -14040,7 +14040,7 @@
         <v>1910.8049925</v>
       </c>
       <c r="E649" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.2">
@@ -14057,7 +14057,7 @@
         <v>1831.1550292500001</v>
       </c>
       <c r="E650" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.2">
@@ -14074,7 +14074,7 @@
         <v>1854.4650877499998</v>
       </c>
       <c r="E651" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.2">
@@ -14091,7 +14091,7 @@
         <v>2036.76745575</v>
       </c>
       <c r="E652" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.2">
@@ -14108,7 +14108,7 @@
         <v>2006.7374265000001</v>
       </c>
       <c r="E653" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.2">
@@ -14125,7 +14125,7 @@
         <v>1993.9425659999999</v>
       </c>
       <c r="E654" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.2">
@@ -14142,7 +14142,7 @@
         <v>1966.9050292500001</v>
       </c>
       <c r="E655" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.2">
@@ -14159,7 +14159,7 @@
         <v>1711.5825802499999</v>
       </c>
       <c r="E656" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.2">
@@ -14176,7 +14176,7 @@
         <v>1682.3474122500002</v>
       </c>
       <c r="E657" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.2">
@@ -14193,7 +14193,7 @@
         <v>1623.4425659999999</v>
       </c>
       <c r="E658" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.2">
@@ -14210,7 +14210,7 @@
         <v>1435.3425292500001</v>
       </c>
       <c r="E659" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.2">
@@ -14227,7 +14227,7 @@
         <v>1356.7424925</v>
       </c>
       <c r="E660" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.2">
@@ -14244,7 +14244,7 @@
         <v>1480.5225217500001</v>
       </c>
       <c r="E661" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.2">
@@ -14261,7 +14261,7 @@
         <v>1624.0200802499999</v>
       </c>
       <c r="E662" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.2">
@@ -14278,7 +14278,7 @@
         <v>1751.2199707499999</v>
       </c>
       <c r="E663" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.2">
@@ -14295,7 +14295,7 @@
         <v>1696.5600585</v>
       </c>
       <c r="E664" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.2">
@@ -14312,7 +14312,7 @@
         <v>1699.1099850000001</v>
       </c>
       <c r="E665" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.2">
@@ -14329,7 +14329,7 @@
         <v>1703.8425292500001</v>
       </c>
       <c r="E666" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.2">
@@ -14346,7 +14346,7 @@
         <v>1882.2374265000001</v>
       </c>
       <c r="E667" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.2">
@@ -14363,7 +14363,7 @@
         <v>1860.4650877499998</v>
       </c>
       <c r="E668" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.2">
@@ -14380,7 +14380,7 @@
         <v>1863.5474850000001</v>
       </c>
       <c r="E669" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.2">
@@ -14397,7 +14397,7 @@
         <v>1936.3500367500001</v>
       </c>
       <c r="E670" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.2">
@@ -14414,7 +14414,7 @@
         <v>1921.5300292500001</v>
       </c>
       <c r="E671" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.2">
@@ -14431,7 +14431,7 @@
         <v>1927.4924925</v>
       </c>
       <c r="E672" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.2">
@@ -14448,7 +14448,7 @@
         <v>1879.7250367500001</v>
       </c>
       <c r="E673" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.2">
@@ -14465,7 +14465,7 @@
         <v>1781.8950802499999</v>
       </c>
       <c r="E674" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.2">
@@ -14482,7 +14482,7 @@
         <v>1790.6024782499999</v>
       </c>
       <c r="E675" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.2">
@@ -14499,7 +14499,7 @@
         <v>1852.1550292500001</v>
       </c>
       <c r="E676" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.2">
@@ -14516,7 +14516,7 @@
         <v>1894.8825075</v>
       </c>
       <c r="E677" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.2">
@@ -14533,7 +14533,7 @@
         <v>1867.5825802499999</v>
       </c>
       <c r="E678" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.2">
@@ -14550,7 +14550,7 @@
         <v>1732.2224122500002</v>
       </c>
       <c r="E679" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.2">
@@ -14567,7 +14567,7 @@
         <v>1745.4450075</v>
       </c>
       <c r="E680" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.2">
@@ -14584,7 +14584,7 @@
         <v>1854.2775877499998</v>
       </c>
       <c r="E681" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.2">
@@ -14601,7 +14601,7 @@
         <v>1905.2625734999999</v>
       </c>
       <c r="E682" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.2">
@@ -14618,7 +14618,7 @@
         <v>2024.6099850000001</v>
       </c>
       <c r="E683" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.2">
@@ -14635,7 +14635,7 @@
         <v>1967.3774415</v>
       </c>
       <c r="E684" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.2">
@@ -14652,7 +14652,7 @@
         <v>1968.2625734999999</v>
       </c>
       <c r="E685" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.2">
@@ -14669,7 +14669,7 @@
         <v>1960.4849850000001</v>
       </c>
       <c r="E686" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.2">
@@ -14686,7 +14686,7 @@
         <v>1889.0850217500001</v>
       </c>
       <c r="E687" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.2">
@@ -14703,7 +14703,7 @@
         <v>1866.4425659999999</v>
       </c>
       <c r="E688" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.2">
@@ -14720,7 +14720,7 @@
         <v>1841.10754425</v>
       </c>
       <c r="E689" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.2">
@@ -14737,7 +14737,7 @@
         <v>1751.4600217500001</v>
       </c>
       <c r="E690" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.2">
@@ -14754,7 +14754,7 @@
         <v>1594.17004425</v>
       </c>
       <c r="E691" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.2">
@@ -14771,7 +14771,7 @@
         <v>1761.7424925</v>
       </c>
       <c r="E692" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.2">
@@ -14788,7 +14788,7 @@
         <v>1985.57995575</v>
       </c>
       <c r="E693" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.2">
@@ -14805,7 +14805,7 @@
         <v>1862.7224122500002</v>
       </c>
       <c r="E694" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.2">
@@ -14822,7 +14822,7 @@
         <v>2150.4375</v>
       </c>
       <c r="E695" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.2">
@@ -14839,7 +14839,7 @@
         <v>2105.5200802499999</v>
       </c>
       <c r="E696" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.2">
@@ -14856,7 +14856,7 @@
         <v>2089.5525509999998</v>
       </c>
       <c r="E697" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.2">
@@ -14873,7 +14873,7 @@
         <v>1967.7075802499999</v>
       </c>
       <c r="E698" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.2">
@@ -14890,7 +14890,7 @@
         <v>1969.92004425</v>
       </c>
       <c r="E699" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.2">
@@ -14907,7 +14907,7 @@
         <v>2024.759949</v>
       </c>
       <c r="E700" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.2">
@@ -14924,7 +14924,7 @@
         <v>1892.9399415</v>
       </c>
       <c r="E701" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.2">
@@ -14941,7 +14941,7 @@
         <v>1858.634949</v>
       </c>
       <c r="E702" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.2">
@@ -14958,7 +14958,7 @@
         <v>1837.4624632499999</v>
       </c>
       <c r="E703" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.2">
@@ -14975,7 +14975,7 @@
         <v>1789.1925659999999</v>
       </c>
       <c r="E704" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.2">
@@ -14992,7 +14992,7 @@
         <v>1727.5050659999999</v>
       </c>
       <c r="E705" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.2">
@@ -15009,7 +15009,7 @@
         <v>1626.2775877499998</v>
       </c>
       <c r="E706" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.2">
@@ -15026,7 +15026,7 @@
         <v>1610.3250734999999</v>
       </c>
       <c r="E707" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.2">
@@ -15043,7 +15043,7 @@
         <v>1588.0050659999999</v>
       </c>
       <c r="E708" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.2">
@@ -15060,7 +15060,7 @@
         <v>1538.302551</v>
       </c>
       <c r="E709" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.2">
@@ -15077,7 +15077,7 @@
         <v>1401.42004425</v>
       </c>
       <c r="E710" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.2">
@@ -15094,7 +15094,7 @@
         <v>1538.5874632499999</v>
       </c>
       <c r="E711" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.2">
@@ -15111,7 +15111,7 @@
         <v>1657.8599850000001</v>
       </c>
       <c r="E712" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.2">
@@ -15128,7 +15128,7 @@
         <v>1697.4675292500001</v>
       </c>
       <c r="E713" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.2">
@@ -15145,7 +15145,7 @@
         <v>1583.0850217500001</v>
       </c>
       <c r="E714" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.2">
@@ -15162,7 +15162,7 @@
         <v>1498.95748875</v>
       </c>
       <c r="E715" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.2">
@@ -15179,7 +15179,7 @@
         <v>1485.0524595000002</v>
       </c>
       <c r="E716" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.2">
@@ -15196,7 +15196,7 @@
         <v>1458.3000179999999</v>
       </c>
       <c r="E717" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.2">
@@ -15213,7 +15213,7 @@
         <v>1406.4600217500001</v>
       </c>
       <c r="E718" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.2">
@@ -15230,7 +15230,7 @@
         <v>1343.33999625</v>
       </c>
       <c r="E719" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.2">
@@ -15247,7 +15247,7 @@
         <v>1277.9774782499999</v>
       </c>
       <c r="E720" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.2">
@@ -15264,7 +15264,7 @@
         <v>1240.2899782499999</v>
       </c>
       <c r="E721" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.2">
@@ -15281,7 +15281,7 @@
         <v>1242.60754425</v>
       </c>
       <c r="E722" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.2">
@@ -15298,7 +15298,7 @@
         <v>1302.09750375</v>
       </c>
       <c r="E723" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.2">
@@ -15315,7 +15315,7 @@
         <v>1195.9424745000001</v>
       </c>
       <c r="E724" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.2">
@@ -15332,7 +15332,7 @@
         <v>1230.8850404999998</v>
       </c>
       <c r="E725" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.2">
@@ -15349,7 +15349,7 @@
         <v>1306.1550292500001</v>
       </c>
       <c r="E726" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.2">
@@ -15366,7 +15366,7 @@
         <v>1248.7424925</v>
       </c>
       <c r="E727" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.2">
@@ -15383,7 +15383,7 @@
         <v>1214.9774782499999</v>
       </c>
       <c r="E728" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.2">
@@ -15400,7 +15400,7 @@
         <v>1164.64498875</v>
       </c>
       <c r="E729" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.2">
@@ -15417,7 +15417,7 @@
         <v>1121.3850404999998</v>
       </c>
       <c r="E730" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.2">
@@ -15434,7 +15434,7 @@
         <v>1127.9475404999998</v>
       </c>
       <c r="E731" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.2">
@@ -15451,7 +15451,7 @@
         <v>1113.7575075</v>
       </c>
       <c r="E732" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.2">
@@ -15468,7 +15468,7 @@
         <v>1077.83248875</v>
       </c>
       <c r="E733" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.2">
@@ -15485,7 +15485,7 @@
         <v>1068.0375367500001</v>
       </c>
       <c r="E734" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.2">
@@ -15502,7 +15502,7 @@
         <v>1046.1224670000001</v>
       </c>
       <c r="E735" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.2">
@@ -15519,7 +15519,7 @@
         <v>1007.08502175</v>
       </c>
       <c r="E736" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.2">
@@ -15536,7 +15536,7 @@
         <v>982.2450255</v>
       </c>
       <c r="E737" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.2">
@@ -15553,7 +15553,7 @@
         <v>985.61251800000002</v>
       </c>
       <c r="E738" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.2">
@@ -15570,7 +15570,7 @@
         <v>965.71499625000001</v>
       </c>
       <c r="E739" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.2">
@@ -15587,7 +15587,7 @@
         <v>963.97503674999996</v>
       </c>
       <c r="E740" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.2">
@@ -15604,7 +15604,7 @@
         <v>947.25</v>
       </c>
       <c r="E741" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.2">
@@ -15621,7 +15621,7 @@
         <v>933.15747075000002</v>
       </c>
       <c r="E742" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.2">
@@ -15638,7 +15638,7 @@
         <v>926.14498875000004</v>
       </c>
       <c r="E743" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.2">
@@ -15655,7 +15655,7 @@
         <v>917.29504424999993</v>
       </c>
       <c r="E744" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.2">
@@ -15672,7 +15672,7 @@
         <v>911.83502175000001</v>
       </c>
       <c r="E745" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.2">
@@ -15689,7 +15689,7 @@
         <v>926.67004424999993</v>
       </c>
       <c r="E746" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.2">
@@ -15706,7 +15706,7 @@
         <v>908.00253299999997</v>
       </c>
       <c r="E747" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.2">
@@ -15723,7 +15723,7 @@
         <v>895.55996700000003</v>
       </c>
       <c r="E748" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.2">
@@ -15740,7 +15740,7 @@
         <v>893.35501124999996</v>
       </c>
       <c r="E749" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.2">
@@ -15757,7 +15757,7 @@
         <v>879.60754424999993</v>
       </c>
       <c r="E750" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.2">
@@ -15774,7 +15774,7 @@
         <v>875.05499250000003</v>
       </c>
       <c r="E751" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.2">
@@ -15791,7 +15791,7 @@
         <v>631.14752175000001</v>
       </c>
       <c r="E752" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.2">
@@ -15808,7 +15808,7 @@
         <v>871.6200255</v>
       </c>
       <c r="E753" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.2">
@@ -15825,7 +15825,7 @@
         <v>862.71752924999998</v>
       </c>
       <c r="E754" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.2">
@@ -15842,7 +15842,7 @@
         <v>905.51998875000004</v>
       </c>
       <c r="E755" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.2">
@@ -15859,7 +15859,7 @@
         <v>896.82000749999997</v>
       </c>
       <c r="E756" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.2">
@@ -15876,7 +15876,7 @@
         <v>896.10754424999993</v>
       </c>
       <c r="E757" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.2">
@@ -15893,7 +15893,7 @@
         <v>880.49249250000003</v>
       </c>
       <c r="E758" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.2">
@@ -15910,7 +15910,7 @@
         <v>874.98751800000002</v>
       </c>
       <c r="E759" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.2">
@@ -15927,7 +15927,7 @@
         <v>879.88504049999995</v>
       </c>
       <c r="E760" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.2">
@@ -15944,7 +15944,7 @@
         <v>847.88250749999997</v>
       </c>
       <c r="E761" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.2">
@@ -15961,7 +15961,7 @@
         <v>832.54504424999993</v>
       </c>
       <c r="E762" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.2">
@@ -15978,7 +15978,7 @@
         <v>841.61251800000002</v>
       </c>
       <c r="E763" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.2">
@@ -15995,7 +15995,7 @@
         <v>821.66253674999996</v>
       </c>
       <c r="E764" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.2">
@@ -16012,7 +16012,7 @@
         <v>805.65747075000002</v>
       </c>
       <c r="E765" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.2">
@@ -16029,7 +16029,7 @@
         <v>800.60247824999999</v>
       </c>
       <c r="E766" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.2">
@@ -16046,7 +16046,7 @@
         <v>776.38504049999995</v>
       </c>
       <c r="E767" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.2">
@@ -16063,7 +16063,7 @@
         <v>765.69749475000003</v>
       </c>
       <c r="E768" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.2">
@@ -16080,7 +16080,7 @@
         <v>756.25502024999992</v>
       </c>
       <c r="E769" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.2">
@@ -16097,7 +16097,7 @@
         <v>761.58750899999995</v>
       </c>
       <c r="E770" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.2">
@@ -16114,7 +16114,7 @@
         <v>709.98751800000002</v>
       </c>
       <c r="E771" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.2">
@@ -16131,7 +16131,7 @@
         <v>721.34999100000005</v>
       </c>
       <c r="E772" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.2">
@@ -16148,7 +16148,7 @@
         <v>667.82249475000003</v>
       </c>
       <c r="E773" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.2">
@@ -16165,7 +16165,7 @@
         <v>695.51248199999998</v>
       </c>
       <c r="E774" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.2">
@@ -16182,7 +16182,7 @@
         <v>766.51501500000006</v>
       </c>
       <c r="E775" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.2">
@@ -16199,7 +16199,7 @@
         <v>748.33502175000001</v>
       </c>
       <c r="E776" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.2">
@@ -16216,7 +16216,7 @@
         <v>782.90249625000001</v>
       </c>
       <c r="E777" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.2">
@@ -16233,7 +16233,7 @@
         <v>753.78749100000005</v>
       </c>
       <c r="E778" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.2">
@@ -16250,7 +16250,7 @@
         <v>725.48249850000002</v>
       </c>
       <c r="E779" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.2">
@@ -16267,7 +16267,7 @@
         <v>705.13499475000003</v>
       </c>
       <c r="E780" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.2">
@@ -16284,7 +16284,7 @@
         <v>797.60998500000005</v>
       </c>
       <c r="E781" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.2">
@@ -16301,7 +16301,7 @@
         <v>839.21997075000002</v>
       </c>
       <c r="E782" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.2">
@@ -16318,7 +16318,7 @@
         <v>927.32254049999995</v>
       </c>
       <c r="E783" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.2">
@@ -16335,7 +16335,7 @@
         <v>913.78500374999999</v>
       </c>
       <c r="E784" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.2">
@@ -16352,7 +16352,7 @@
         <v>904.20748875000004</v>
       </c>
       <c r="E785" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.2">
@@ -16369,7 +16369,7 @@
         <v>870.67501800000002</v>
       </c>
       <c r="E786" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.2">
@@ -16386,7 +16386,7 @@
         <v>828.58502175000001</v>
       </c>
       <c r="E787" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.2">
@@ -16403,7 +16403,7 @@
         <v>741.51750149999998</v>
       </c>
       <c r="E788" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.2">
@@ -16420,7 +16420,7 @@
         <v>847.01248199999998</v>
       </c>
       <c r="E789" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.2">
@@ -16437,7 +16437,7 @@
         <v>852.66000374999999</v>
       </c>
       <c r="E790" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.2">
@@ -16454,7 +16454,7 @@
         <v>861.4950255</v>
       </c>
       <c r="E791" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.2">
@@ -16471,7 +16471,7 @@
         <v>945.75</v>
       </c>
       <c r="E792" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.2">
@@ -16488,7 +16488,7 @@
         <v>931.57498199999998</v>
       </c>
       <c r="E793" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.2">
@@ -16505,7 +16505,7 @@
         <v>921.54748500000005</v>
       </c>
       <c r="E794" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.2">
@@ -16522,7 +16522,7 @@
         <v>938.10003674999996</v>
       </c>
       <c r="E795" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.2">
@@ -16539,7 +16539,7 @@
         <v>908.96997075000002</v>
       </c>
       <c r="E796" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.2">
@@ -16556,7 +16556,7 @@
         <v>865.91253674999996</v>
       </c>
       <c r="E797" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.2">
@@ -16573,7 +16573,7 @@
         <v>881.8125</v>
       </c>
       <c r="E798" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.2">
@@ -16590,7 +16590,7 @@
         <v>873.20251499999995</v>
       </c>
       <c r="E799" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.2">
@@ -16607,7 +16607,7 @@
         <v>847.95748875000004</v>
       </c>
       <c r="E800" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.2">
@@ -16624,7 +16624,7 @@
         <v>837.15747075000002</v>
       </c>
       <c r="E801" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.2">
@@ -16641,7 +16641,7 @@
         <v>819.3075255</v>
       </c>
       <c r="E802" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.2">
@@ -16658,7 +16658,7 @@
         <v>835.15502924999998</v>
       </c>
       <c r="E803" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.2">
@@ -16675,7 +16675,7 @@
         <v>821.12246700000003</v>
       </c>
       <c r="E804" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.2">
@@ -16692,7 +16692,7 @@
         <v>805.15502924999998</v>
       </c>
       <c r="E805" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.2">
@@ -16709,7 +16709,7 @@
         <v>780.74249250000003</v>
       </c>
       <c r="E806" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.2">
@@ -16726,7 +16726,7 @@
         <v>778.25253299999997</v>
       </c>
       <c r="E807" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.2">
@@ -16743,7 +16743,7 @@
         <v>783.51004049999995</v>
       </c>
       <c r="E808" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.2">
@@ -16760,7 +16760,7 @@
         <v>769.40249625000001</v>
       </c>
       <c r="E809" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.2">
@@ -16777,7 +16777,7 @@
         <v>755.54251124999996</v>
       </c>
       <c r="E810" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.2">
@@ -16794,7 +16794,7 @@
         <v>749.79748499999994</v>
       </c>
       <c r="E811" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.2">
@@ -16811,7 +16811,7 @@
         <v>739.84501649999993</v>
       </c>
       <c r="E812" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.2">
@@ -16828,7 +16828,7 @@
         <v>731.32498199999998</v>
       </c>
       <c r="E813" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.2">
@@ -16845,7 +16845,7 @@
         <v>744.33750899999995</v>
       </c>
       <c r="E814" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.2">
@@ -16862,7 +16862,7 @@
         <v>737.94749475000003</v>
       </c>
       <c r="E815" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.2">
@@ -16879,7 +16879,7 @@
         <v>710.26501500000006</v>
       </c>
       <c r="E816" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.2">
@@ -16896,7 +16896,7 @@
         <v>693.48751800000002</v>
       </c>
       <c r="E817" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.2">
@@ -16913,7 +16913,7 @@
         <v>765.24751274999994</v>
       </c>
       <c r="E818" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.2">
@@ -16930,7 +16930,7 @@
         <v>764.90249625000001</v>
       </c>
       <c r="E819" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.2">
@@ -16947,7 +16947,7 @@
         <v>758.12251274999994</v>
       </c>
       <c r="E820" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.2">
@@ -16964,7 +16964,7 @@
         <v>753.03749100000005</v>
       </c>
       <c r="E821" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.2">
@@ -16981,7 +16981,7 @@
         <v>750.30747975000008</v>
       </c>
       <c r="E822" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.2">
@@ -16998,7 +16998,7 @@
         <v>741.90751649999993</v>
       </c>
       <c r="E823" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.2">
@@ -17015,7 +17015,7 @@
         <v>730.125</v>
       </c>
       <c r="E824" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.2">
@@ -17032,7 +17032,7 @@
         <v>719.86500524999997</v>
       </c>
       <c r="E825" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.2">
@@ -17049,7 +17049,7 @@
         <v>688.03500374999999</v>
       </c>
       <c r="E826" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.2">
@@ -17066,7 +17066,7 @@
         <v>683.63250749999997</v>
       </c>
       <c r="E827" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.2">
@@ -17083,7 +17083,7 @@
         <v>684.50999475000003</v>
       </c>
       <c r="E828" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.2">
@@ -17100,7 +17100,7 @@
         <v>684.63002024999992</v>
       </c>
       <c r="E829" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.2">
@@ -17117,7 +17117,7 @@
         <v>680.93998725000006</v>
       </c>
       <c r="E830" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.2">
@@ -17134,7 +17134,7 @@
         <v>670.11749250000003</v>
       </c>
       <c r="E831" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.2">
@@ -17151,7 +17151,7 @@
         <v>662.72250374999999</v>
       </c>
       <c r="E832" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
@@ -17168,7 +17168,7 @@
         <v>666.86251800000002</v>
       </c>
       <c r="E833" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
@@ -17185,7 +17185,7 @@
         <v>683.13748199999998</v>
       </c>
       <c r="E834" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
@@ -17202,7 +17202,7 @@
         <v>666.46499625000001</v>
       </c>
       <c r="E835" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
@@ -17219,7 +17219,7 @@
         <v>667.09501649999993</v>
       </c>
       <c r="E836" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
@@ -17236,7 +17236,7 @@
         <v>659.17501800000002</v>
       </c>
       <c r="E837" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
@@ -17253,7 +17253,7 @@
         <v>653.03251649999993</v>
       </c>
       <c r="E838" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.2">
@@ -17270,7 +17270,7 @@
         <v>634.40249625000001</v>
       </c>
       <c r="E839" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
@@ -17287,7 +17287,7 @@
         <v>618.77998350000007</v>
       </c>
       <c r="E840" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
@@ -17304,7 +17304,7 @@
         <v>613.27500899999995</v>
       </c>
       <c r="E841" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
@@ -17321,7 +17321,7 @@
         <v>606.47250374999999</v>
       </c>
       <c r="E842" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
@@ -17338,7 +17338,7 @@
         <v>606.20251500000006</v>
       </c>
       <c r="E843" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
@@ -17355,7 +17355,7 @@
         <v>578.25</v>
       </c>
       <c r="E844" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.2">
@@ -17372,7 +17372,7 @@
         <v>554.66249100000005</v>
       </c>
       <c r="E845" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
@@ -17389,7 +17389,7 @@
         <v>563.72250374999999</v>
       </c>
       <c r="E846" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
@@ -17406,7 +17406,7 @@
         <v>667.58999625000001</v>
       </c>
       <c r="E847" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
@@ -17423,7 +17423,7 @@
         <v>653.18247975000008</v>
       </c>
       <c r="E848" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.2">
@@ -17440,7 +17440,7 @@
         <v>656.88748199999998</v>
       </c>
       <c r="E849" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.2">
@@ -17457,7 +17457,7 @@
         <v>604.99497975000008</v>
       </c>
       <c r="E850" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.2">
@@ -17474,7 +17474,7 @@
         <v>639.41249100000005</v>
       </c>
       <c r="E851" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.2">
@@ -17491,7 +17491,7 @@
         <v>655.89752175000001</v>
       </c>
       <c r="E852" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.2">
@@ -17508,7 +17508,7 @@
         <v>766.74000524999997</v>
       </c>
       <c r="E853" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.2">
@@ -17525,7 +17525,7 @@
         <v>754.89752175000001</v>
       </c>
       <c r="E854" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.2">
@@ -17542,7 +17542,7 @@
         <v>742.65000899999995</v>
       </c>
       <c r="E855" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.2">
@@ -17559,7 +17559,7 @@
         <v>717.07498199999998</v>
       </c>
       <c r="E856" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.2">
@@ -17576,7 +17576,7 @@
         <v>706.80001800000002</v>
       </c>
       <c r="E857" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
